--- a/FinanceInsight/app/data_lake/raw/crypto_data_2025-02-13.xlsx
+++ b/FinanceInsight/app/data_lake/raw/crypto_data_2025-02-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7735,6 +7735,7206 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>btc</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1911869929023</v>
+      </c>
+      <c r="D102" t="n">
+        <v>96450</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>96450</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1059.941152251122</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-1.08701</v>
+      </c>
+      <c r="I102" t="n">
+        <v>38310999864</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-22263231356.37134</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-1.15107</v>
+      </c>
+      <c r="L102" t="n">
+        <v>19823850</v>
+      </c>
+      <c r="M102" t="n">
+        <v>19823850</v>
+      </c>
+      <c r="N102" t="n">
+        <v>108786</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2025-01-20T09:11:54.494Z</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>2013-07-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>98098</v>
+      </c>
+      <c r="S102" t="n">
+        <v>95410</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.503Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>321431271067</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2667.13</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2667.13</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-13.00669933730296</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.4853</v>
+      </c>
+      <c r="I103" t="n">
+        <v>21998757393</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-1829072851.917786</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.56582</v>
+      </c>
+      <c r="L103" t="n">
+        <v>120545397.9735351</v>
+      </c>
+      <c r="M103" t="n">
+        <v>120545397.9735351</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4878.26</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2021-11-10T14:24:19.604Z</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0.432979</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2015-10-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2782.27</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2619.67</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.290Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>xrp</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>144569161030</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.053188</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.16326</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3711128576</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2456344583</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.72845</v>
+      </c>
+      <c r="L104" t="n">
+        <v>57762545657</v>
+      </c>
+      <c r="M104" t="n">
+        <v>99986504676</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2018-01-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.00268621</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>2014-05-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.645Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>usdt</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>141925367540</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.999984</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.999984</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.7608987341156e-05</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-0.00176</v>
+      </c>
+      <c r="I105" t="n">
+        <v>65612388472</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-28243355.22387695</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.0199</v>
+      </c>
+      <c r="L105" t="n">
+        <v>141925329575.6634</v>
+      </c>
+      <c r="M105" t="n">
+        <v>141925329575.6634</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2018-07-24T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0.5725209999999999</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>2015-03-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.999933</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.510Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bnb</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>97977420330</v>
+      </c>
+      <c r="D106" t="n">
+        <v>671.67</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>671.67</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-26.30708925066767</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-3.76903</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5128343118</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-3901224421.005692</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-3.82929</v>
+      </c>
+      <c r="L106" t="n">
+        <v>145887575.79</v>
+      </c>
+      <c r="M106" t="n">
+        <v>145887575.79</v>
+      </c>
+      <c r="N106" t="n">
+        <v>788.84</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2024-12-04T10:35:25.220Z</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0398177</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>2017-10-19T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>728.54</v>
+      </c>
+      <c r="S106" t="n">
+        <v>665.73</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:27.588Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>95051442918</v>
+      </c>
+      <c r="D107" t="n">
+        <v>194.69</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>194.69</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1.0056477668372</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.51388</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3419105050</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-576695917.1799316</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.60306</v>
+      </c>
+      <c r="L107" t="n">
+        <v>488170363.3773939</v>
+      </c>
+      <c r="M107" t="n">
+        <v>593924625.8159525</v>
+      </c>
+      <c r="N107" t="n">
+        <v>293.31</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2025-01-19T11:15:27.957Z</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0.5008010000000001</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>2020-05-11T19:35:23.449Z</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>198.18</v>
+      </c>
+      <c r="S107" t="n">
+        <v>189.49</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:27.779Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>usdc</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>56098351556</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.999911</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.999911</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3.1703184377285e-05</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.00317</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9170797580</v>
+      </c>
+      <c r="J108" t="n">
+        <v>24557005</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.04379</v>
+      </c>
+      <c r="L108" t="n">
+        <v>56104154710.32294</v>
+      </c>
+      <c r="M108" t="n">
+        <v>56112836797.42675</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2019-05-08T00:40:28.300Z</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0.877647</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>2023-03-11T08:02:13.981Z</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>0.9999980000000001</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.573Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>doge</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>38642429155</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.261504</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.261504</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.001544123538924302</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.58701</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1553389617</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-252058908.605629</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.64806</v>
+      </c>
+      <c r="L109" t="n">
+        <v>148031526383.7052</v>
+      </c>
+      <c r="M109" t="n">
+        <v>148033626383.7051</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.731578</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2021-05-08T05:08:23.458Z</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>8.69e-05</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>2015-05-06T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>0.266832</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.254008</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:32.178Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Cardano</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ada</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>29277793470</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.816542</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.816542</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0257266</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.25317</v>
+      </c>
+      <c r="I110" t="n">
+        <v>812437835</v>
+      </c>
+      <c r="J110" t="n">
+        <v>829156354</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2.91457</v>
+      </c>
+      <c r="L110" t="n">
+        <v>35918136268.48197</v>
+      </c>
+      <c r="M110" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2021-09-02T06:00:10.474Z</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0.01925275</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:22:55.044Z</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>0.817828</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.772378</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.905Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Lido Staked Ether</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>steth</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>25060438596</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2665.55</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2665.55</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-14.20994327412518</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.53027</v>
+      </c>
+      <c r="I111" t="n">
+        <v>63113102</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-115939920.4204712</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.46051</v>
+      </c>
+      <c r="L111" t="n">
+        <v>9399882.67167238</v>
+      </c>
+      <c r="M111" t="n">
+        <v>9399882.67167238</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4829.57</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2021-11-10T14:40:47.256Z</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>482.9</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>2020-12-22T04:08:21.854Z</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2781.03</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2618.53</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.163Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TRON</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>trx</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>20261995419</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.23536</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.23536</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.007593395114820017</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-3.12546</v>
+      </c>
+      <c r="I112" t="n">
+        <v>698044649</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-650272320.4567337</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-3.10953</v>
+      </c>
+      <c r="L112" t="n">
+        <v>86098579970.90622</v>
+      </c>
+      <c r="M112" t="n">
+        <v>86098580449.74008</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.431288</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2024-12-04T00:10:40.323Z</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0.00180434</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2017-11-12T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>0.244366</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.233977</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.892Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Wrapped Bitcoin</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>wbtc</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>12448919301</v>
+      </c>
+      <c r="D113" t="n">
+        <v>96434</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12</v>
+      </c>
+      <c r="F113" t="n">
+        <v>96434</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-901.236351268919</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.92591</v>
+      </c>
+      <c r="I113" t="n">
+        <v>759216110</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-131931628.5213432</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-1.04867</v>
+      </c>
+      <c r="L113" t="n">
+        <v>129138.42002211</v>
+      </c>
+      <c r="M113" t="n">
+        <v>129138.42002211</v>
+      </c>
+      <c r="N113" t="n">
+        <v>108368</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2025-01-20T07:16:27.137Z</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3139.17</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>2019-04-02T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>98094</v>
+      </c>
+      <c r="S113" t="n">
+        <v>95283</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.502Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>11809871607</v>
+      </c>
+      <c r="D114" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="E114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F114" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.3116582767941907</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-1.65571</v>
+      </c>
+      <c r="I114" t="n">
+        <v>504445033</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-197765145.5662575</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-1.64699</v>
+      </c>
+      <c r="L114" t="n">
+        <v>638099970.4505637</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="N114" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2021-05-10T00:13:57.214Z</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>0.148183</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2017-11-29T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:29.753Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sui</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>sui</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>10817840824</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>14</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.002507561890499499</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.07149999999999999</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1217529084</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-10938983.05536652</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.10102</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3089707194.508888</v>
+      </c>
+      <c r="M115" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>2025-01-04T22:56:18.063Z</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>0.364846</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2023-10-19T10:40:30.078Z</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:29.858Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Wrapped stETH</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>wsteth</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>10577021992</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3169.09</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3169.09</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-29.1715862045985</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.91211</v>
+      </c>
+      <c r="I116" t="n">
+        <v>43359702</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-119932948.5839558</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-1.12119</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3337558.57834601</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3337558.57834601</v>
+      </c>
+      <c r="N116" t="n">
+        <v>7256.02</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2022-05-13T15:09:54.509Z</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>558.54</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2022-05-13T01:36:45.053Z</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3322.28</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3130.05</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:33.878Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Avalanche</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>avax</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>10484356465</v>
+      </c>
+      <c r="D117" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="E117" t="n">
+        <v>16</v>
+      </c>
+      <c r="F117" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.8964990431468252</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-3.4023</v>
+      </c>
+      <c r="I117" t="n">
+        <v>333855237</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-364043296.3408604</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-3.35573</v>
+      </c>
+      <c r="L117" t="n">
+        <v>411949015.1880672</v>
+      </c>
+      <c r="M117" t="n">
+        <v>450285278.20008</v>
+      </c>
+      <c r="N117" t="n">
+        <v>144.96</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2021-11-21T14:18:56.538Z</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>2020-12-31T13:15:21.540Z</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="S117" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.270Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Stellar</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>xlm</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>10262200813</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.33599</v>
+      </c>
+      <c r="E118" t="n">
+        <v>17</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.33599</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.00805406</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.45598</v>
+      </c>
+      <c r="I118" t="n">
+        <v>249353205</v>
+      </c>
+      <c r="J118" t="n">
+        <v>218164602</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2.17208</v>
+      </c>
+      <c r="L118" t="n">
+        <v>30602801962.68239</v>
+      </c>
+      <c r="M118" t="n">
+        <v>50001786894.45016</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.875563</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2018-01-03T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>0.00047612</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2015-03-05T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>0.336472</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.323532</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.997Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Litecoin</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ltc</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>9619991383</v>
+      </c>
+      <c r="D119" t="n">
+        <v>127.32</v>
+      </c>
+      <c r="E119" t="n">
+        <v>18</v>
+      </c>
+      <c r="F119" t="n">
+        <v>127.32</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.55143</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1371969247</v>
+      </c>
+      <c r="J119" t="n">
+        <v>360163157</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3.88952</v>
+      </c>
+      <c r="L119" t="n">
+        <v>75528495.73347135</v>
+      </c>
+      <c r="M119" t="n">
+        <v>75529395.73347135</v>
+      </c>
+      <c r="N119" t="n">
+        <v>410.26</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2021-05-10T03:13:07.904Z</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>2015-01-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>128.49</v>
+      </c>
+      <c r="S119" t="n">
+        <v>119.18</v>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.872Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Shiba Inu</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>shib</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>9588076051</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.629e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.629e-05</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4.68667363875e-07</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-2.79731</v>
+      </c>
+      <c r="I120" t="n">
+        <v>295955231</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-282938487.0291882</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-2.86636</v>
+      </c>
+      <c r="L120" t="n">
+        <v>589253884742459.6</v>
+      </c>
+      <c r="M120" t="n">
+        <v>589507246485685.8</v>
+      </c>
+      <c r="N120" t="n">
+        <v>8.616e-05</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2021-10-28T03:54:55.568Z</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>5.6366e-11</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>2020-11-28T11:26:25.838Z</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>1.728e-05</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1.597e-05</v>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:27.475Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Toncoin</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ton</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9321566398</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E121" t="n">
+        <v>20</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.00583605507096463</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.15591</v>
+      </c>
+      <c r="I121" t="n">
+        <v>202860585</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-16012586.58113098</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.17149</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2494196964.194482</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5122233758.688554</v>
+      </c>
+      <c r="N121" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2024-06-15T00:36:51.509Z</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>0.519364</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>2021-09-21T00:33:11.092Z</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.286Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>LEO Token</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>leo</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>9048684809</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>21</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.04664558576083166</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.47413</v>
+      </c>
+      <c r="I122" t="n">
+        <v>463104</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-44862840.68717957</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.49335</v>
+      </c>
+      <c r="L122" t="n">
+        <v>924132108.9</v>
+      </c>
+      <c r="M122" t="n">
+        <v>985239504</v>
+      </c>
+      <c r="N122" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2025-02-09T22:45:42.188Z</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>0.799859</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>2019-12-24T15:14:35.376Z</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="S122" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.862Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hyperliquid</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>hype</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8678756587</v>
+      </c>
+      <c r="D123" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="E123" t="n">
+        <v>22</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.966379</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3.86153</v>
+      </c>
+      <c r="I123" t="n">
+        <v>159756469</v>
+      </c>
+      <c r="J123" t="n">
+        <v>333685047</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3.99859</v>
+      </c>
+      <c r="L123" t="n">
+        <v>333928180</v>
+      </c>
+      <c r="M123" t="n">
+        <v>999990391</v>
+      </c>
+      <c r="N123" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>2024-12-22T03:56:00.276Z</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>2024-11-29T09:30:30.871Z</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="S123" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.531Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>USDS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>usds</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>8634145587</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.999497</v>
+      </c>
+      <c r="E124" t="n">
+        <v>23</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.999497</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.000460182001181364</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.04602</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15095030</v>
+      </c>
+      <c r="J124" t="n">
+        <v>117351333</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.37788</v>
+      </c>
+      <c r="L124" t="n">
+        <v>8641068765.3659</v>
+      </c>
+      <c r="M124" t="n">
+        <v>8641068765.3659</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2024-10-29T05:40:51.197Z</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>0.948265</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>2024-10-03T13:19:28.826Z</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.996384</v>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.874Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Hedera</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>hbar</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>8579889282</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.224313</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.224313</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.005197251172370881</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-2.26449</v>
+      </c>
+      <c r="I125" t="n">
+        <v>257298522</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-215161053.2940807</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-2.44639</v>
+      </c>
+      <c r="L125" t="n">
+        <v>38269622458.10745</v>
+      </c>
+      <c r="M125" t="n">
+        <v>50000000000</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.569229</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>2021-09-15T10:40:28.318Z</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>0.009861109999999999</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>2020-01-02T17:30:24.852Z</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>0.236413</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.218788</v>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.707Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>weth</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>8009364102</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2667.62</v>
+      </c>
+      <c r="E126" t="n">
+        <v>25</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2667.62</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-10.71390203760711</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.40002</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1076218300</v>
+      </c>
+      <c r="J126" t="n">
+        <v>45027942</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.56537</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3004555.700458034</v>
+      </c>
+      <c r="M126" t="n">
+        <v>3004555.700458034</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4799.89</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>2021-11-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>2018-12-15T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2788.24</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2619.07</v>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.411Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Polkadot</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>dot</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>7858270340</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E127" t="n">
+        <v>26</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.05020214111626498</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.9634</v>
+      </c>
+      <c r="I127" t="n">
+        <v>240124999</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-87897793.8284874</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-1.10617</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1522267060</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1522267060</v>
+      </c>
+      <c r="N127" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>2021-11-04T14:10:09.301Z</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>2020-08-20T05:48:11.359Z</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S127" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.225Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bitcoin Cash</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>bch</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>6671057683</v>
+      </c>
+      <c r="D128" t="n">
+        <v>336.62</v>
+      </c>
+      <c r="E128" t="n">
+        <v>27</v>
+      </c>
+      <c r="F128" t="n">
+        <v>336.62</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3.477056612222611</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-1.02238</v>
+      </c>
+      <c r="I128" t="n">
+        <v>180465418</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-66810090.6944046</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.99156</v>
+      </c>
+      <c r="L128" t="n">
+        <v>19828968.64665078</v>
+      </c>
+      <c r="M128" t="n">
+        <v>19828996.77165078</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3785.82</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>2017-12-20T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>76.93000000000001</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>2018-12-16T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>346.21</v>
+      </c>
+      <c r="S128" t="n">
+        <v>328.01</v>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:27.584Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Bitget Token</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>bgb</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>6574874396</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E129" t="n">
+        <v>28</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.5245001874300748</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-8.737920000000001</v>
+      </c>
+      <c r="I129" t="n">
+        <v>456207172</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-628107664.1487999</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-8.72011</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1199999994.2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1199999994.2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>2024-12-27T11:41:24.992Z</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>0.0142795</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>2020-06-25T04:17:05.895Z</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S129" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.689Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Ethena USDe</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>usde</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>5983348734</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.999723</v>
+      </c>
+      <c r="E130" t="n">
+        <v>29</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.999723</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.00045478</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.04551</v>
+      </c>
+      <c r="I130" t="n">
+        <v>68128152</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-15745358.59739399</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.26246</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5987231037.220328</v>
+      </c>
+      <c r="M130" t="n">
+        <v>5987231037.220328</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>2023-12-20T15:38:34.596Z</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>0.929486</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>2024-10-04T07:57:15.809Z</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0.996761</v>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:32.743Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>uni</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>5866403308</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.04245046880890158</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.43247</v>
+      </c>
+      <c r="I131" t="n">
+        <v>236357369</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-29050038.21589088</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.49275</v>
+      </c>
+      <c r="L131" t="n">
+        <v>600483073.71</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="N131" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>2021-05-03T05:25:04.822Z</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>2020-09-17T01:20:38.214Z</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="S131" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:32.429Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MANTRA</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>om</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>5481920980</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E132" t="n">
+        <v>31</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.1026222214395531</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-1.78134</v>
+      </c>
+      <c r="I132" t="n">
+        <v>289087172</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-127554746.5493488</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-2.27392</v>
+      </c>
+      <c r="L132" t="n">
+        <v>968601955.6999998</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1807758850.49</v>
+      </c>
+      <c r="N132" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>2025-02-07T14:11:08.824Z</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>0.01726188</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>2023-10-12T17:25:09.068Z</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="S132" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.732Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Wrapped eETH</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>weeth</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>5399872456</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2823.99</v>
+      </c>
+      <c r="E133" t="n">
+        <v>32</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2823.99</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-15.00034182519039</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.52837</v>
+      </c>
+      <c r="I133" t="n">
+        <v>14957236</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-39701061.92882156</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.72986</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1913256.100031722</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1913256.100031722</v>
+      </c>
+      <c r="N133" t="n">
+        <v>4311.81</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>2024-12-06T20:32:25.758Z</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>2231.18</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>2024-01-08T03:35:28.624Z</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2953.74</v>
+      </c>
+      <c r="S133" t="n">
+        <v>2777.66</v>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.541Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Ondo</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ondo</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>4195539220</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E134" t="n">
+        <v>33</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.05901395200281834</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-4.25529</v>
+      </c>
+      <c r="I134" t="n">
+        <v>298995771</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-182315915.296443</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-4.1645</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3159107529</v>
+      </c>
+      <c r="M134" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>2024-12-16T00:36:00.777Z</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>0.08217099999999999</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>2024-01-18T12:14:30.524Z</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.927Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Monero</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>xmr</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4134241864</v>
+      </c>
+      <c r="D135" t="n">
+        <v>224.21</v>
+      </c>
+      <c r="E135" t="n">
+        <v>34</v>
+      </c>
+      <c r="F135" t="n">
+        <v>224.21</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.8376981428646957</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-0.37224</v>
+      </c>
+      <c r="I135" t="n">
+        <v>56719158</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-18917162.1550703</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.45549</v>
+      </c>
+      <c r="L135" t="n">
+        <v>18446744.07370955</v>
+      </c>
+      <c r="M135" t="n">
+        <v>18446744.07370955</v>
+      </c>
+      <c r="N135" t="n">
+        <v>542.33</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>2018-01-09T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>0.216177</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>2015-01-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>228.53</v>
+      </c>
+      <c r="S135" t="n">
+        <v>222.41</v>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.250Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>pepe</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>4075328924</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.69e-06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>35</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.69e-06</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-9.2995373962e-08</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.95039</v>
+      </c>
+      <c r="I136" t="n">
+        <v>708869529</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-42005386.25818968</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-1.02021</v>
+      </c>
+      <c r="L136" t="n">
+        <v>420690000000000</v>
+      </c>
+      <c r="M136" t="n">
+        <v>420690000000000</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2.803e-05</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>2024-12-09T16:30:35.828Z</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>5.5142e-08</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>2023-04-18T02:14:41.591Z</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.021e-05</v>
+      </c>
+      <c r="S136" t="n">
+        <v>9.500000000000001e-06</v>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:37.859Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NEAR Protocol</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>4004745537</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E137" t="n">
+        <v>36</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.00758268</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.22443</v>
+      </c>
+      <c r="I137" t="n">
+        <v>201544342</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-3214647.040150166</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.08021</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1184141216</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1235169932</v>
+      </c>
+      <c r="N137" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>2022-01-16T22:09:45.873Z</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>0.526762</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>2020-11-04T16:09:15.137Z</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S137" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:37.013Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>WhiteBIT Coin</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>wbt</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3925104666</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="E138" t="n">
+        <v>37</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.3253060995236261</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-1.18689</v>
+      </c>
+      <c r="I138" t="n">
+        <v>28761221</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-24078195.16152</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.6097</v>
+      </c>
+      <c r="L138" t="n">
+        <v>144118517.1081541</v>
+      </c>
+      <c r="M138" t="n">
+        <v>331450421</v>
+      </c>
+      <c r="N138" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>2025-01-23T14:52:15.951Z</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>2023-02-13T19:01:21.899Z</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="S138" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:33.410Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3823898747</v>
+      </c>
+      <c r="D139" t="n">
+        <v>253.49</v>
+      </c>
+      <c r="E139" t="n">
+        <v>38</v>
+      </c>
+      <c r="F139" t="n">
+        <v>253.49</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.60006</v>
+      </c>
+      <c r="I139" t="n">
+        <v>375612883</v>
+      </c>
+      <c r="J139" t="n">
+        <v>62175359</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.65284</v>
+      </c>
+      <c r="L139" t="n">
+        <v>15071792.10286</v>
+      </c>
+      <c r="M139" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="N139" t="n">
+        <v>661.6900000000001</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>2021-05-18T21:19:59.514Z</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>2020-11-05T09:20:11.928Z</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>259.24</v>
+      </c>
+      <c r="S139" t="n">
+        <v>247.14</v>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:37.378Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Aptos</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>apt</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3605375537</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.07438400000000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.22392</v>
+      </c>
+      <c r="I140" t="n">
+        <v>258566708</v>
+      </c>
+      <c r="J140" t="n">
+        <v>112895840</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3.23254</v>
+      </c>
+      <c r="L140" t="n">
+        <v>586631358.4931906</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1139956939.798608</v>
+      </c>
+      <c r="N140" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>2023-01-26T14:25:17.390Z</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>2022-12-29T21:35:14.796Z</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="S140" t="n">
+        <v>6</v>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:37.965Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Dai</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3481831603</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.999945</v>
+      </c>
+      <c r="E141" t="n">
+        <v>40</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.999945</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.00021492</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="I141" t="n">
+        <v>242016440</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-532342.0920424461</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-0.01529</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3482045860.084105</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3482045860.084105</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>2020-03-13T03:02:50.373Z</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>0.88196</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>2023-03-11T07:50:50.514Z</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.999284</v>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:30.872Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mantle</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>mnt</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3475219285</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="E142" t="n">
+        <v>41</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.001208378389519815</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-0.11667</v>
+      </c>
+      <c r="I142" t="n">
+        <v>116586518</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-9585994.55877924</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.27508</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3364694382.83684</v>
+      </c>
+      <c r="M142" t="n">
+        <v>6219316794.99</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>2024-04-08T09:45:25.482Z</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>0.307978</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>2023-10-18T02:50:46.942Z</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="S142" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.869Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Internet Computer</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>icp</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3440736312</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E143" t="n">
+        <v>42</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.1552203755878203</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-2.11956</v>
+      </c>
+      <c r="I143" t="n">
+        <v>117093563</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-80722961.03943205</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-2.29232</v>
+      </c>
+      <c r="L143" t="n">
+        <v>480852608.167321</v>
+      </c>
+      <c r="M143" t="n">
+        <v>529999793.1364257</v>
+      </c>
+      <c r="N143" t="n">
+        <v>700.65</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>2021-05-10T16:05:53.653Z</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>2023-09-22T00:29:57.369Z</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="S143" t="n">
+        <v>7</v>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.224Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Official Trump</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>trump</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3296748334</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E144" t="n">
+        <v>43</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8.218299999999999</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2247343708</v>
+      </c>
+      <c r="J144" t="n">
+        <v>246697110</v>
+      </c>
+      <c r="K144" t="n">
+        <v>8.088290000000001</v>
+      </c>
+      <c r="L144" t="n">
+        <v>199999994.843</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="N144" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>2025-01-19T11:50:34.806Z</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>2025-01-18T03:40:29.231Z</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="S144" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:37.254Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>sUSDS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>susds</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>3263942695</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="E145" t="n">
+        <v>44</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.00509613</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.49508</v>
+      </c>
+      <c r="I145" t="n">
+        <v>994497</v>
+      </c>
+      <c r="J145" t="n">
+        <v>38391572</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1.19023</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3155512298.838046</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3155512298.838046</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>2025-02-03T02:31:35.208Z</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>0.961716</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>2025-01-04T01:21:08.460Z</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="S145" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:29.426Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>etc</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3177904818</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>45</v>
+      </c>
+      <c r="F146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.00650591</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.03085</v>
+      </c>
+      <c r="I146" t="n">
+        <v>108704459</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-3007792.504087448</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.09456000000000001</v>
+      </c>
+      <c r="L146" t="n">
+        <v>150739703.1698864</v>
+      </c>
+      <c r="M146" t="n">
+        <v>150739703.1698864</v>
+      </c>
+      <c r="N146" t="n">
+        <v>167.09</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>2021-05-06T18:34:22.133Z</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>0.615038</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>2016-07-25T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="S146" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:33.004Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Bittensor</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>tao</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>3175824200</v>
+      </c>
+      <c r="D147" t="n">
+        <v>379.82</v>
+      </c>
+      <c r="E147" t="n">
+        <v>46</v>
+      </c>
+      <c r="F147" t="n">
+        <v>379.82</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-26.09758417764368</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-6.42931</v>
+      </c>
+      <c r="I147" t="n">
+        <v>170951145</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-163813936.2859721</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-4.90514</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8365924</v>
+      </c>
+      <c r="M147" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="N147" t="n">
+        <v>757.6</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>2024-03-07T18:45:36.466Z</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>2023-05-14T08:57:53.732Z</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>416.01</v>
+      </c>
+      <c r="S147" t="n">
+        <v>371.06</v>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.910Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>3064181379</v>
+      </c>
+      <c r="D148" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="E148" t="n">
+        <v>47</v>
+      </c>
+      <c r="F148" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1.131919808295699</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-2.16801</v>
+      </c>
+      <c r="I148" t="n">
+        <v>9238991</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-73962266.79357243</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-2.35688</v>
+      </c>
+      <c r="L148" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="M148" t="n">
+        <v>235957685.3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>2024-03-14T00:30:12.502Z</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>0.580608</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>2019-01-14T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="S148" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.174Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>gt</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2896522192</v>
+      </c>
+      <c r="D149" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="E149" t="n">
+        <v>48</v>
+      </c>
+      <c r="F149" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.6898339999999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.10504</v>
+      </c>
+      <c r="I149" t="n">
+        <v>22529841</v>
+      </c>
+      <c r="J149" t="n">
+        <v>99644839</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3.56272</v>
+      </c>
+      <c r="L149" t="n">
+        <v>125815473.1998088</v>
+      </c>
+      <c r="M149" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="N149" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>2025-01-25T03:07:37.823Z</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>0.25754</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:18:02.481Z</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="S149" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:33.718Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>VeChain</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>vet</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2796848057</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.03454417</v>
+      </c>
+      <c r="E150" t="n">
+        <v>49</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.03454417</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4.7975185014856e-05</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-0.13869</v>
+      </c>
+      <c r="I150" t="n">
+        <v>53434164</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-674911.0769033432</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-0.02413</v>
+      </c>
+      <c r="L150" t="n">
+        <v>80985041177</v>
+      </c>
+      <c r="M150" t="n">
+        <v>85985041177</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.280991</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>2021-04-19T01:08:21.675Z</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>0.00191713</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:29:59.652Z</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>0.03586061</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0.03375272</v>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:32.305Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>POL (ex-MATIC)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>pol</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2714695360</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.317041</v>
+      </c>
+      <c r="E151" t="n">
+        <v>50</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.317041</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-0.005209211490954491</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-1.61651</v>
+      </c>
+      <c r="I151" t="n">
+        <v>98047718</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-44598687.20432568</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-1.61631</v>
+      </c>
+      <c r="L151" t="n">
+        <v>8562596151.374981</v>
+      </c>
+      <c r="M151" t="n">
+        <v>10361901110.26989</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>2024-03-13T18:55:06.692Z</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>0.269234</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>2025-02-03T02:11:32.978Z</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>0.330949</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0.312246</v>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.080Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Kaspa</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>kas</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2688621131</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.104462</v>
+      </c>
+      <c r="E152" t="n">
+        <v>51</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.104462</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.00831483</v>
+      </c>
+      <c r="H152" t="n">
+        <v>8.648</v>
+      </c>
+      <c r="I152" t="n">
+        <v>107458451</v>
+      </c>
+      <c r="J152" t="n">
+        <v>221488702</v>
+      </c>
+      <c r="K152" t="n">
+        <v>8.97758</v>
+      </c>
+      <c r="L152" t="n">
+        <v>25697723589.12928</v>
+      </c>
+      <c r="M152" t="n">
+        <v>25697904456.14097</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.207411</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>2024-08-01T00:40:47.164Z</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>0.00017105</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>2022-05-26T14:42:59.316Z</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>0.106419</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0.095401</v>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.431Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Coinbase Wrapped BTC</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>cbbtc</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2507224710</v>
+      </c>
+      <c r="D153" t="n">
+        <v>96492</v>
+      </c>
+      <c r="E153" t="n">
+        <v>52</v>
+      </c>
+      <c r="F153" t="n">
+        <v>96492</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-726.913388598914</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.74771</v>
+      </c>
+      <c r="I153" t="n">
+        <v>411100665</v>
+      </c>
+      <c r="J153" t="n">
+        <v>16377203</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.6575</v>
+      </c>
+      <c r="L153" t="n">
+        <v>26008.18356701</v>
+      </c>
+      <c r="M153" t="n">
+        <v>26008.18356701</v>
+      </c>
+      <c r="N153" t="n">
+        <v>108953</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>2025-01-20T09:20:53.854Z</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>57439</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>2024-09-12T14:07:41.775Z</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>98247</v>
+      </c>
+      <c r="S153" t="n">
+        <v>95283</v>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.993Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Algorand</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>algo</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2487053850</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.294975</v>
+      </c>
+      <c r="E154" t="n">
+        <v>53</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.294975</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.002025854230373547</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-0.6821</v>
+      </c>
+      <c r="I154" t="n">
+        <v>127304407</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-16201291.71357965</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-0.64721</v>
+      </c>
+      <c r="L154" t="n">
+        <v>8434057717.191877</v>
+      </c>
+      <c r="M154" t="n">
+        <v>8434067135.975735</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>2019-06-20T14:51:19.480Z</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>0.08751299999999999</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>2023-09-11T19:42:08.247Z</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>0.306507</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0.285818</v>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.306Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>cro</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2481231572</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.090877</v>
+      </c>
+      <c r="E155" t="n">
+        <v>54</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.090877</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-0.003013009640195047</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-3.20908</v>
+      </c>
+      <c r="I155" t="n">
+        <v>17135310</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-81961343.06444454</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-3.19763</v>
+      </c>
+      <c r="L155" t="n">
+        <v>27301881386.67816</v>
+      </c>
+      <c r="M155" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.965407</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>2021-11-24T15:53:54.855Z</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>0.0121196</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>2019-02-08T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>0.09551900000000001</v>
+      </c>
+      <c r="S155" t="n">
+        <v>0.090085</v>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:30.486Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tokenize Xchange</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>tkx</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2352959108</v>
+      </c>
+      <c r="D156" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="E156" t="n">
+        <v>55</v>
+      </c>
+      <c r="F156" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H156" t="n">
+        <v>5.25406</v>
+      </c>
+      <c r="I156" t="n">
+        <v>22459410</v>
+      </c>
+      <c r="J156" t="n">
+        <v>117278086</v>
+      </c>
+      <c r="K156" t="n">
+        <v>5.24574</v>
+      </c>
+      <c r="L156" t="n">
+        <v>79995999.05112354</v>
+      </c>
+      <c r="M156" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="N156" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>2025-01-03T19:12:43.038Z</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>0.111255</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>2019-04-28T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="S156" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.121Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Render</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>render</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2343141524</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E157" t="n">
+        <v>56</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.05756832134027956</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-1.25314</v>
+      </c>
+      <c r="I157" t="n">
+        <v>140574577</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-38120704.19197655</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-1.60086</v>
+      </c>
+      <c r="L157" t="n">
+        <v>517716590.0562826</v>
+      </c>
+      <c r="M157" t="n">
+        <v>532476763.3362826</v>
+      </c>
+      <c r="N157" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>2024-03-17T16:30:24.636Z</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>0.03665669</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>2020-06-16T13:22:25.900Z</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S157" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:39.083Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jupiter</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>jup</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2239054088</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.8487710000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>57</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.8487710000000001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-0.005795912201375097</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-0.67823</v>
+      </c>
+      <c r="I158" t="n">
+        <v>234495779</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-15749942.45888567</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-0.69851</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2637438888.89</v>
+      </c>
+      <c r="M158" t="n">
+        <v>6999978785.194641</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>2024-01-31T15:02:47.304Z</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>0.457464</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>2024-02-21T18:31:05.083Z</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>0.871359</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0.809574</v>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.458Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Cosmos Hub</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>atom</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2185764970</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E159" t="n">
+        <v>58</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.03474763</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.69761</v>
+      </c>
+      <c r="I159" t="n">
+        <v>143179024</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12731540</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.58589</v>
+      </c>
+      <c r="L159" t="n">
+        <v>436058622.232131</v>
+      </c>
+      <c r="M159" t="n">
+        <v>436058622.232131</v>
+      </c>
+      <c r="N159" t="n">
+        <v>44.45</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>2022-01-17T00:34:41.497Z</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:27:44.591Z</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S159" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.521Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Filecoin</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>fil</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2164518156</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E160" t="n">
+        <v>59</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.02765888497051927</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.80406</v>
+      </c>
+      <c r="I160" t="n">
+        <v>137059516</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2168510</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.10028</v>
+      </c>
+      <c r="L160" t="n">
+        <v>634487626</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1959667836</v>
+      </c>
+      <c r="N160" t="n">
+        <v>236.84</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>2021-04-01T13:29:41.564Z</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>2022-12-16T22:45:28.552Z</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.752Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Arbitrum</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>arb</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2114901521</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.486897</v>
+      </c>
+      <c r="E161" t="n">
+        <v>60</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.486897</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.00195035</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.40218</v>
+      </c>
+      <c r="I161" t="n">
+        <v>215937595</v>
+      </c>
+      <c r="J161" t="n">
+        <v>8035597</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.3814</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4343862574</v>
+      </c>
+      <c r="M161" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>2024-01-12T12:29:59.231Z</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>0.38247</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>2025-02-03T02:11:02.489Z</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>0.506628</v>
+      </c>
+      <c r="S161" t="n">
+        <v>0.477026</v>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.842Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>First Digital USD</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>fdusd</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2088350952</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.998926</v>
+      </c>
+      <c r="E162" t="n">
+        <v>61</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.998926</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.00129883</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.13019</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5682720594</v>
+      </c>
+      <c r="J162" t="n">
+        <v>44482782</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.1764</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2091014489.18817</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2091014489.18817</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>2025-02-03T02:30:49.959Z</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>0.940377</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>2024-12-05T22:30:51.394Z</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="S162" t="n">
+        <v>0.9920949999999999</v>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.613Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Artificial Superintelligence Alliance</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>fet</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2026810274</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.778497</v>
+      </c>
+      <c r="E163" t="n">
+        <v>62</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.778497</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.02090027047925724</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-2.6145</v>
+      </c>
+      <c r="I163" t="n">
+        <v>156477833</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-55691284.46391559</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-2.67425</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2604959126.672</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2714493896.672</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>2024-03-28T17:21:18.050Z</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>0.008169589999999999</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:24:18.347Z</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>0.830577</v>
+      </c>
+      <c r="S163" t="n">
+        <v>0.764714</v>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.175Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Lombard Staked BTC</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>lbtc</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1921827551</v>
+      </c>
+      <c r="D164" t="n">
+        <v>96466</v>
+      </c>
+      <c r="E164" t="n">
+        <v>63</v>
+      </c>
+      <c r="F164" t="n">
+        <v>96466</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-852.3282687921455</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-0.87581</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4146657</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-10199555.42617869</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-0.5279199999999999</v>
+      </c>
+      <c r="L164" t="n">
+        <v>19928.52895449</v>
+      </c>
+      <c r="M164" t="n">
+        <v>19928.52895449</v>
+      </c>
+      <c r="N164" t="n">
+        <v>114576</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>2025-02-04T01:47:44.052Z</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>52119</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>2024-09-06T21:01:52.094Z</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>98512</v>
+      </c>
+      <c r="S164" t="n">
+        <v>94962</v>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.146Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sonic (prev. FTM)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1712127761</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.539162</v>
+      </c>
+      <c r="E165" t="n">
+        <v>64</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.539162</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.00010443</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.01937</v>
+      </c>
+      <c r="I165" t="n">
+        <v>203833214</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1765362</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.10322</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3175000000</v>
+      </c>
+      <c r="M165" t="n">
+        <v>3175000000</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>2025-01-04T21:35:44.705Z</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>0.359647</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>2025-02-03T02:11:37.229Z</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>0.58456</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0.5328889999999999</v>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:27.720Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Fasttoken</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ftn</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1689201014</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E166" t="n">
+        <v>65</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.00204683</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.05195</v>
+      </c>
+      <c r="I166" t="n">
+        <v>48330415</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-2012883.411964655</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-0.11902</v>
+      </c>
+      <c r="L166" t="n">
+        <v>429035494.6</v>
+      </c>
+      <c r="M166" t="n">
+        <v>870742437</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>2025-02-12T17:00:32.861Z</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>0.398142</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>2023-01-21T10:15:39.503Z</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S166" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:33.573Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Binance-Peg WETH</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>weth</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1609977381</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2664.94</v>
+      </c>
+      <c r="E167" t="n">
+        <v>66</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2664.94</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-15.13230712837867</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-0.56462</v>
+      </c>
+      <c r="I167" t="n">
+        <v>126176903</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-15376528.35373092</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-0.94604</v>
+      </c>
+      <c r="L167" t="n">
+        <v>604999.999959841</v>
+      </c>
+      <c r="M167" t="n">
+        <v>604999.999959841</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4098.26</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>2024-12-06T20:27:27.286Z</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>2171.8</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>2024-09-06T21:02:52.910Z</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>2774.23</v>
+      </c>
+      <c r="S167" t="n">
+        <v>2619.97</v>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.973Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Celestia</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>tia</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1606916900</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E168" t="n">
+        <v>67</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.1224897207525357</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-3.85595</v>
+      </c>
+      <c r="I168" t="n">
+        <v>83701637</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-61875912.19665527</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-3.70782</v>
+      </c>
+      <c r="L168" t="n">
+        <v>526368097.181031</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1102582356.164055</v>
+      </c>
+      <c r="N168" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>2024-02-10T14:30:02.495Z</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>2023-10-31T15:14:31.951Z</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.886Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Binance Staked SOL</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>bnsol</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1547257708</v>
+      </c>
+      <c r="D169" t="n">
+        <v>201.69</v>
+      </c>
+      <c r="E169" t="n">
+        <v>68</v>
+      </c>
+      <c r="F169" t="n">
+        <v>201.69</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.9037282556309378</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-0.44607</v>
+      </c>
+      <c r="I169" t="n">
+        <v>10540387</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-8488131.688508749</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.5456</v>
+      </c>
+      <c r="L169" t="n">
+        <v>7676016.347482188</v>
+      </c>
+      <c r="M169" t="n">
+        <v>7676016.347482188</v>
+      </c>
+      <c r="N169" t="n">
+        <v>297.96</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>2025-01-19T11:30:53.744Z</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>127.32</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>2024-09-18T15:30:14.531Z</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>205.31</v>
+      </c>
+      <c r="S169" t="n">
+        <v>195.93</v>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.357Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Kelp DAO Restaked ETH</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>rseth</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1535717615</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2761.04</v>
+      </c>
+      <c r="E170" t="n">
+        <v>69</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2761.04</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-13.93365049345039</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-0.50212</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3885592</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-21387774.94221711</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-1.37356</v>
+      </c>
+      <c r="L170" t="n">
+        <v>556269.1465055281</v>
+      </c>
+      <c r="M170" t="n">
+        <v>556269.1465055281</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4216.2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>2024-12-06T20:31:16.142Z</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>2069.62</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>2024-01-23T14:25:53.609Z</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2863.29</v>
+      </c>
+      <c r="S170" t="n">
+        <v>2715.57</v>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:39.015Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Optimism</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1525666648</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E171" t="n">
+        <v>70</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.03016954</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.74252</v>
+      </c>
+      <c r="I171" t="n">
+        <v>200780183</v>
+      </c>
+      <c r="J171" t="n">
+        <v>37700868</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2.53372</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1351719035</v>
+      </c>
+      <c r="M171" t="n">
+        <v>4294967296</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>2024-03-06T08:35:50.817Z</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>0.402159</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>2022-06-18T20:54:52.178Z</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.682Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Lido DAO</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ldo</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1512937535</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E172" t="n">
+        <v>71</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.07604900000000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4.72586</v>
+      </c>
+      <c r="I172" t="n">
+        <v>329929563</v>
+      </c>
+      <c r="J172" t="n">
+        <v>70604807</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4.89518</v>
+      </c>
+      <c r="L172" t="n">
+        <v>896827818.47191</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="N172" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>2021-08-20T08:35:20.158Z</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>0.40615</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>2022-06-18T20:55:12.035Z</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.661Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Raydium</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ray</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1508472150</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E173" t="n">
+        <v>72</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-0.02096933068291307</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-0.40286</v>
+      </c>
+      <c r="I173" t="n">
+        <v>135408967</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-5152121.796103001</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-0.34038</v>
+      </c>
+      <c r="L173" t="n">
+        <v>290866823.959339</v>
+      </c>
+      <c r="M173" t="n">
+        <v>555000000</v>
+      </c>
+      <c r="N173" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>2021-09-12T20:20:23.998Z</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>0.134391</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>2022-12-29T22:15:53.927Z</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S173" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.195Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>KuCoin</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>kcs</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1486926669</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E174" t="n">
+        <v>73</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.1386040521841689</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-1.12996</v>
+      </c>
+      <c r="I174" t="n">
+        <v>88298</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-17129452.24021983</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-1.13888</v>
+      </c>
+      <c r="L174" t="n">
+        <v>122606967.8513356</v>
+      </c>
+      <c r="M174" t="n">
+        <v>142606967.8513356</v>
+      </c>
+      <c r="N174" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>2021-12-01T15:09:35.541Z</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>0.342863</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>2019-02-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="S174" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.834Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Injective</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>inj</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1482642093</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="E175" t="n">
+        <v>74</v>
+      </c>
+      <c r="F175" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.605892</v>
+      </c>
+      <c r="H175" t="n">
+        <v>4.15763</v>
+      </c>
+      <c r="I175" t="n">
+        <v>111754745</v>
+      </c>
+      <c r="J175" t="n">
+        <v>57927491</v>
+      </c>
+      <c r="K175" t="n">
+        <v>4.0659</v>
+      </c>
+      <c r="L175" t="n">
+        <v>97727220.33</v>
+      </c>
+      <c r="M175" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="N175" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>2024-03-14T15:06:22.124Z</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>0.657401</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>2020-11-03T16:19:30.576Z</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="S175" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.274Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>XDC Network</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>xdc</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1461961129</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.093152</v>
+      </c>
+      <c r="E176" t="n">
+        <v>75</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.093152</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-0.00089464158728407</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-0.9512699999999999</v>
+      </c>
+      <c r="I176" t="n">
+        <v>44258487</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-13346311.83908296</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-0.90465</v>
+      </c>
+      <c r="L176" t="n">
+        <v>15688447675.5</v>
+      </c>
+      <c r="M176" t="n">
+        <v>37971969774.45</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.192754</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>2021-08-21T04:39:48.324Z</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>0.00039532</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>2019-07-22T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>0.09597600000000001</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0.091971</v>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.203Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Solv Protocol SolvBTC</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>solvbtc</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1452232439</v>
+      </c>
+      <c r="D177" t="n">
+        <v>96207</v>
+      </c>
+      <c r="E177" t="n">
+        <v>76</v>
+      </c>
+      <c r="F177" t="n">
+        <v>96207</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-962.9323327214515</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-0.99098</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4552201</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-20199475.45281124</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-1.37184</v>
+      </c>
+      <c r="L177" t="n">
+        <v>15094.71082627281</v>
+      </c>
+      <c r="M177" t="n">
+        <v>15094.71110098392</v>
+      </c>
+      <c r="N177" t="n">
+        <v>108929</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>2025-01-20T07:17:19.296Z</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>49058</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>2024-08-05T06:28:45.311Z</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>97903</v>
+      </c>
+      <c r="S177" t="n">
+        <v>95252</v>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.668Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Stacks</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>stx</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1449471564</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.958476</v>
+      </c>
+      <c r="E178" t="n">
+        <v>77</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.958476</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-0.02022080176235586</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-2.06609</v>
+      </c>
+      <c r="I178" t="n">
+        <v>40331350</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-30084416.24833608</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-2.03334</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1512979822.5289</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1512986822.5289</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>2024-04-01T12:34:58.342Z</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>0.04559639</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:29:26.415Z</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0.937711</v>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:27.534Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Ethena</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ena</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1400394070</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.447622</v>
+      </c>
+      <c r="E179" t="n">
+        <v>78</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.447622</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.01302757</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2.99764</v>
+      </c>
+      <c r="I179" t="n">
+        <v>312095572</v>
+      </c>
+      <c r="J179" t="n">
+        <v>42212260</v>
+      </c>
+      <c r="K179" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3128125000</v>
+      </c>
+      <c r="M179" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>2024-04-11T13:15:15.057Z</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>0.195078</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>2024-09-06T21:04:48.253Z</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>0.469025</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0.431823</v>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:32.812Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Immutable</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>imx</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1392499903</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.798501</v>
+      </c>
+      <c r="E180" t="n">
+        <v>79</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.798501</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-0.01709893066679613</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-2.09648</v>
+      </c>
+      <c r="I180" t="n">
+        <v>57490338</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-29680467.98884845</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-2.08697</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1743800322.389814</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2000000000</v>
+      </c>
+      <c r="N180" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>2021-11-26T01:03:01.536Z</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>0.378055</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>2022-12-31T07:36:37.649Z</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>0.840417</v>
+      </c>
+      <c r="S180" t="n">
+        <v>0.783197</v>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.250Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Theta Network</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1383152640</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E181" t="n">
+        <v>80</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-0.03564218147456377</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-2.51221</v>
+      </c>
+      <c r="I181" t="n">
+        <v>22551251</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-35858320.96412992</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-2.52699</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="N181" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>2021-04-16T13:15:11.190Z</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>0.04039979</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>2020-03-13T02:24:16.483Z</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:30.742Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Bonk</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>bonk</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1352585889</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.75e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>81</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.75e-05</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4.10914900406e-07</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-2.29372</v>
+      </c>
+      <c r="I182" t="n">
+        <v>98692068</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-28679238.92973781</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-2.0763</v>
+      </c>
+      <c r="L182" t="n">
+        <v>77223222429676.62</v>
+      </c>
+      <c r="M182" t="n">
+        <v>88871814782349.86</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5.825e-05</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>2024-11-20T04:01:06.465Z</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>8.6142e-08</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>2022-12-29T22:48:46.755Z</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>1.845e-05</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1.728e-05</v>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:28.028Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>The Graph</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>grt</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1344422089</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.140779</v>
+      </c>
+      <c r="E183" t="n">
+        <v>82</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.140779</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-0.003274042582610354</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-2.2728</v>
+      </c>
+      <c r="I183" t="n">
+        <v>56367904</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-31175489.49177122</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-2.26632</v>
+      </c>
+      <c r="L183" t="n">
+        <v>9548531509.16547</v>
+      </c>
+      <c r="M183" t="n">
+        <v>10788004319</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>2021-02-12T07:28:45.775Z</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>0.052051</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>2022-11-22T10:05:03.503Z</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>0.147354</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0.139444</v>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:30.791Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Rocket Pool ETH</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>reth</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1338169349</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2992.02</v>
+      </c>
+      <c r="E184" t="n">
+        <v>83</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2992.02</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-15.88866316638223</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-0.52823</v>
+      </c>
+      <c r="I184" t="n">
+        <v>20307086</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-8823785.803296804</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-0.65507</v>
+      </c>
+      <c r="L184" t="n">
+        <v>447246.530336064</v>
+      </c>
+      <c r="M184" t="n">
+        <v>447246.530336064</v>
+      </c>
+      <c r="N184" t="n">
+        <v>4814.31</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>2021-12-01T08:03:50.749Z</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>887.26</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>2022-06-18T20:55:45.957Z</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3124.85</v>
+      </c>
+      <c r="S184" t="n">
+        <v>2939.16</v>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.580Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Quant</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>qnt</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1338133702</v>
+      </c>
+      <c r="D185" t="n">
+        <v>92.04000000000001</v>
+      </c>
+      <c r="E185" t="n">
+        <v>84</v>
+      </c>
+      <c r="F185" t="n">
+        <v>92.04000000000001</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.908064</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.99644</v>
+      </c>
+      <c r="I185" t="n">
+        <v>47275509</v>
+      </c>
+      <c r="J185" t="n">
+        <v>10677400</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.80435</v>
+      </c>
+      <c r="L185" t="n">
+        <v>14544176.16409109</v>
+      </c>
+      <c r="M185" t="n">
+        <v>14612493</v>
+      </c>
+      <c r="N185" t="n">
+        <v>427.42</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>2021-09-11T09:15:00.668Z</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>0.215773</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>2018-08-23T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>97.12</v>
+      </c>
+      <c r="S185" t="n">
+        <v>90.98</v>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:37.490Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NEXO</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>nexo</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1327322886</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E186" t="n">
+        <v>85</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.009763362399572983</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-0.72998</v>
+      </c>
+      <c r="I186" t="n">
+        <v>10305404</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-10330588.12444496</v>
+      </c>
+      <c r="K186" t="n">
+        <v>-0.77229</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="N186" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>2021-05-12T14:37:47.535Z</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>0.04515276</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>2018-09-13T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.868Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Movement</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1307569813</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.544858</v>
+      </c>
+      <c r="E187" t="n">
+        <v>86</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.544858</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-0.0047982850056697</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-0.87296</v>
+      </c>
+      <c r="I187" t="n">
+        <v>102919055</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-12976845.20185471</v>
+      </c>
+      <c r="K187" t="n">
+        <v>-0.98269</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="M187" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>2024-12-10T04:05:51.093Z</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>0.497641</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>2025-02-10T02:30:26.108Z</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>0.5732390000000001</v>
+      </c>
+      <c r="S187" t="n">
+        <v>0.530525</v>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.129Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Flare</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>flr</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1257233805</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.02134988</v>
+      </c>
+      <c r="E188" t="n">
+        <v>87</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.02134988</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.00059277</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2.85574</v>
+      </c>
+      <c r="I188" t="n">
+        <v>13074892</v>
+      </c>
+      <c r="J188" t="n">
+        <v>36428126</v>
+      </c>
+      <c r="K188" t="n">
+        <v>2.98394</v>
+      </c>
+      <c r="L188" t="n">
+        <v>58899187804.92483</v>
+      </c>
+      <c r="M188" t="n">
+        <v>103004100119.7523</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.150073</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>2023-01-10T03:14:05.921Z</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>0.00827405</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>2023-10-19T03:35:41.663Z</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>0.02158604</v>
+      </c>
+      <c r="S188" t="n">
+        <v>0.02016124</v>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.439Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Worldcoin</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>wld</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1246987866</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E189" t="n">
+        <v>88</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.03089635785815359</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-2.45105</v>
+      </c>
+      <c r="I189" t="n">
+        <v>178976186</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-28598714.97549772</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-2.24201</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1014645208.231625</v>
+      </c>
+      <c r="M189" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="N189" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>2024-03-10T00:10:42.330Z</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>0.973104</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>2023-09-13T07:36:44.064Z</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.070Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mantle Staked Ether</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>meth</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1239705845</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2816.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>89</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2816.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-13.20085569157663</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-0.46651</v>
+      </c>
+      <c r="I190" t="n">
+        <v>19677430</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-50360015.43032718</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-3.90368</v>
+      </c>
+      <c r="L190" t="n">
+        <v>440317.2103170559</v>
+      </c>
+      <c r="M190" t="n">
+        <v>440317.2103170559</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4729.53</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>2024-03-27T05:26:27.333Z</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>2142.02</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>2023-12-18T10:41:32.686Z</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>2936.5</v>
+      </c>
+      <c r="S190" t="n">
+        <v>2765.86</v>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.999Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Usual USD</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>usd0</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1144270174</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.9973379999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>90</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.9973379999999999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-0.00014067205873225</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-0.0141</v>
+      </c>
+      <c r="I191" t="n">
+        <v>28240494</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-11517173.9012413</v>
+      </c>
+      <c r="K191" t="n">
+        <v>-0.99648</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1147512960.725203</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1147512960.725203</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>2024-07-12T08:28:59.311Z</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>0.976415</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>2025-01-20T17:07:15.786Z</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="S191" t="n">
+        <v>0.99459</v>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.979Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>JasmyCoin</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>jasmy</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1065837354</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.02201489</v>
+      </c>
+      <c r="E192" t="n">
+        <v>91</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.02201489</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-0.00037447771892497</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-1.67257</v>
+      </c>
+      <c r="I192" t="n">
+        <v>62013165</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-22398351.13563633</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-2.05823</v>
+      </c>
+      <c r="L192" t="n">
+        <v>48419999999.3058</v>
+      </c>
+      <c r="M192" t="n">
+        <v>50000000000</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>2021-02-16T03:53:32.207Z</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>0.00275026</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>2022-12-29T20:41:09.113Z</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>0.02321724</v>
+      </c>
+      <c r="S192" t="n">
+        <v>0.02167366</v>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.103Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sei</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>sei</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1030464661</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.232596</v>
+      </c>
+      <c r="E193" t="n">
+        <v>92</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.232596</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-0.005292217086493356</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-2.22466</v>
+      </c>
+      <c r="I193" t="n">
+        <v>67959648</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-23745566.96747732</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-2.25245</v>
+      </c>
+      <c r="L193" t="n">
+        <v>4432638888</v>
+      </c>
+      <c r="M193" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>2024-03-16T02:30:23.904Z</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>0.095364</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>2023-10-19T08:05:30.655Z</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>0.244875</v>
+      </c>
+      <c r="S193" t="n">
+        <v>0.228449</v>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:26.514Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Solv Protocol SolvBTC.BBN</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>solvbtc.bbn</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1016650147</v>
+      </c>
+      <c r="D194" t="n">
+        <v>95644</v>
+      </c>
+      <c r="E194" t="n">
+        <v>93</v>
+      </c>
+      <c r="F194" t="n">
+        <v>95644</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-847.8847592711245</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-0.87871</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1344727</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-7654629.577219367</v>
+      </c>
+      <c r="K194" t="n">
+        <v>-0.7473</v>
+      </c>
+      <c r="L194" t="n">
+        <v>10625.43867520956</v>
+      </c>
+      <c r="M194" t="n">
+        <v>10625.43867520956</v>
+      </c>
+      <c r="N194" t="n">
+        <v>117077</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>2025-01-20T07:15:49.114Z</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>11402.13</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>2024-09-10T17:58:43.974Z</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>97143</v>
+      </c>
+      <c r="S194" t="n">
+        <v>94568</v>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:38.562Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DeXe</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>dexe</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1012785858</v>
+      </c>
+      <c r="D195" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="E195" t="n">
+        <v>94</v>
+      </c>
+      <c r="F195" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-0.7884162904478309</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-4.25595</v>
+      </c>
+      <c r="I195" t="n">
+        <v>11154234</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-45331858.49007499</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-4.2842</v>
+      </c>
+      <c r="L195" t="n">
+        <v>57103774.56313077</v>
+      </c>
+      <c r="M195" t="n">
+        <v>96504599.33609451</v>
+      </c>
+      <c r="N195" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:29:57.935Z</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>0.671563</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>2020-11-06T19:31:40.144Z</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="S195" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:31.379Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>gala</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>997808704</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0232029</v>
+      </c>
+      <c r="E196" t="n">
+        <v>95</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0232029</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-0.000581368119096839</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-2.44434</v>
+      </c>
+      <c r="I196" t="n">
+        <v>111789513</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-25183633.19884467</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-2.46176</v>
+      </c>
+      <c r="L196" t="n">
+        <v>43013098773.51993</v>
+      </c>
+      <c r="M196" t="n">
+        <v>43013099297.80376</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.824837</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>2021-11-26T01:03:48.731Z</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>0.00013475</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>2020-12-28T08:46:48.367Z</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>0.02474408</v>
+      </c>
+      <c r="S196" t="n">
+        <v>0.02283089</v>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:36.784Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>eos</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>979287990</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.646196</v>
+      </c>
+      <c r="E197" t="n">
+        <v>96</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.646196</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-0.0086590455695994</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-1.32229</v>
+      </c>
+      <c r="I197" t="n">
+        <v>117192396</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-14746483.50525868</v>
+      </c>
+      <c r="K197" t="n">
+        <v>-1.4835</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1516885789.1746</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2100000000</v>
+      </c>
+      <c r="N197" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>2018-04-29T07:50:33.540Z</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>0.402746</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>2024-11-04T21:55:59.771Z</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>0.668753</v>
+      </c>
+      <c r="S197" t="n">
+        <v>0.635177</v>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:32.745Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Marinade Staked SOL</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>msol</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>979017937</v>
+      </c>
+      <c r="D198" t="n">
+        <v>246.65</v>
+      </c>
+      <c r="E198" t="n">
+        <v>97</v>
+      </c>
+      <c r="F198" t="n">
+        <v>246.65</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1.40642026969212</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-0.56697</v>
+      </c>
+      <c r="I198" t="n">
+        <v>27103046</v>
+      </c>
+      <c r="J198" t="n">
+        <v>5608419</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.57616</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3969204</v>
+      </c>
+      <c r="M198" t="n">
+        <v>3969514</v>
+      </c>
+      <c r="N198" t="n">
+        <v>363.77</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>2025-01-19T11:26:02.862Z</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>2022-12-29T20:45:33.039Z</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>250.58</v>
+      </c>
+      <c r="S198" t="n">
+        <v>239.96</v>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:35.840Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>The Sandbox</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>sand</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>962722557</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.393643</v>
+      </c>
+      <c r="E199" t="n">
+        <v>98</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.393643</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-0.008180545947848672</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-2.03585</v>
+      </c>
+      <c r="I199" t="n">
+        <v>95799698</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-19604802.21151423</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-1.99575</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2445857126.223322</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="N199" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>2021-11-25T06:04:40.957Z</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>0.02897764</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>2020-11-04T15:59:14.441Z</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>0.410073</v>
+      </c>
+      <c r="S199" t="n">
+        <v>0.387347</v>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:30.963Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>FLOKI</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>floki</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>936917395</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.687999999999999e-05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>99</v>
+      </c>
+      <c r="F200" t="n">
+        <v>9.687999999999999e-05</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1.457407299715e-06</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-1.48208</v>
+      </c>
+      <c r="I200" t="n">
+        <v>176351020</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-14229108.45428729</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-1.496</v>
+      </c>
+      <c r="L200" t="n">
+        <v>9672224268967</v>
+      </c>
+      <c r="M200" t="n">
+        <v>10000000000000</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.00034495</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>2024-06-05T07:25:59.137Z</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>8.428e-08</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>2021-07-06T01:11:20.438Z</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>0.00010239</v>
+      </c>
+      <c r="S200" t="n">
+        <v>9.488e-05</v>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:34.348Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tezos</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>xtz</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>922380881</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.896333</v>
+      </c>
+      <c r="E201" t="n">
+        <v>100</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.896333</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-0.004926748256650515</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-0.54665</v>
+      </c>
+      <c r="I201" t="n">
+        <v>27612151</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-5689740.299318552</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-0.61307</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1030007816.134845</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1050315225.008982</v>
+      </c>
+      <c r="N201" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>2021-10-04T00:41:18.025Z</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>0.350476</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>2018-12-07T00:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>0.923575</v>
+      </c>
+      <c r="S201" t="n">
+        <v>0.875692</v>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>2025-02-13T22:10:30.730Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
